--- a/data/factor_data/regression_stats/stats_ttwo.xlsx
+++ b/data/factor_data/regression_stats/stats_ttwo.xlsx
@@ -438,22 +438,22 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>-0.003186100805749269</v>
+        <v>-0.004909735707972859</v>
       </c>
       <c r="C2">
-        <v>-5.505294466356715</v>
+        <v>-5.591172467696671</v>
       </c>
       <c r="D2">
-        <v>-0.003600504661717031</v>
+        <v>-0.005523215971093185</v>
       </c>
       <c r="E2">
-        <v>-6.667202742746935</v>
+        <v>-7.038131166025472</v>
       </c>
       <c r="F2">
-        <v>-0.00358421131183745</v>
+        <v>-0.005493044638061336</v>
       </c>
       <c r="G2">
-        <v>-6.69654842888522</v>
+        <v>-7.013026928014599</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -461,22 +461,22 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>0.8660977187436275</v>
+        <v>0.7843893811845296</v>
       </c>
       <c r="C3">
-        <v>12.40973041617104</v>
+        <v>10.77846034841436</v>
       </c>
       <c r="D3">
-        <v>0.9525662297798363</v>
+        <v>0.8846228494787359</v>
       </c>
       <c r="E3">
-        <v>15.31595841148232</v>
+        <v>13.77357718198111</v>
       </c>
       <c r="F3">
-        <v>0.9184796758677847</v>
+        <v>0.8710229797382808</v>
       </c>
       <c r="G3">
-        <v>14.4563313075708</v>
+        <v>12.55439926742312</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -484,16 +484,16 @@
         <v>8</v>
       </c>
       <c r="D4">
-        <v>0.1139392778286789</v>
+        <v>0.183491280106345</v>
       </c>
       <c r="E4">
-        <v>0.9913271057091959</v>
+        <v>1.187235823812027</v>
       </c>
       <c r="F4">
-        <v>0.05840940444828872</v>
+        <v>0.1434651227480919</v>
       </c>
       <c r="G4">
-        <v>0.4981630269001177</v>
+        <v>0.8701767834751463</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -501,16 +501,16 @@
         <v>9</v>
       </c>
       <c r="D5">
-        <v>-0.8729700532096055</v>
+        <v>-0.9126722506232912</v>
       </c>
       <c r="E5">
-        <v>-9.256155012847916</v>
+        <v>-8.386053460771677</v>
       </c>
       <c r="F5">
-        <v>-0.7290075375089881</v>
+        <v>-0.8438706450923897</v>
       </c>
       <c r="G5">
-        <v>-6.928282726806242</v>
+        <v>-6.155359266988637</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -518,10 +518,10 @@
         <v>10</v>
       </c>
       <c r="F6">
-        <v>-0.1783891604022005</v>
+        <v>-0.06967786687169689</v>
       </c>
       <c r="G6">
-        <v>-1.190827685940739</v>
+        <v>-0.3021662654477426</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -529,10 +529,10 @@
         <v>11</v>
       </c>
       <c r="F7">
-        <v>-0.4796692752024949</v>
+        <v>-0.227704981831301</v>
       </c>
       <c r="G7">
-        <v>-2.470923464373975</v>
+        <v>-0.7807282574773323</v>
       </c>
     </row>
   </sheetData>

--- a/data/factor_data/regression_stats/stats_ttwo.xlsx
+++ b/data/factor_data/regression_stats/stats_ttwo.xlsx
@@ -438,22 +438,22 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>-0.004909735707972859</v>
+        <v>-0.004807097791293017</v>
       </c>
       <c r="C2">
-        <v>-5.591172467696671</v>
+        <v>-5.589950546647288</v>
       </c>
       <c r="D2">
-        <v>-0.005523215971093185</v>
+        <v>-0.005375803006318414</v>
       </c>
       <c r="E2">
-        <v>-7.038131166025472</v>
+        <v>-6.987722403296669</v>
       </c>
       <c r="F2">
-        <v>-0.005493044638061336</v>
+        <v>-0.005331894982315611</v>
       </c>
       <c r="G2">
-        <v>-7.013026928014599</v>
+        <v>-6.917970019700033</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -461,22 +461,22 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>0.7843893811845296</v>
+        <v>0.7887876678977781</v>
       </c>
       <c r="C3">
-        <v>10.77846034841436</v>
+        <v>10.92902620168826</v>
       </c>
       <c r="D3">
-        <v>0.8846228494787359</v>
+        <v>0.8840258762932579</v>
       </c>
       <c r="E3">
-        <v>13.77357718198111</v>
+        <v>13.931540304405</v>
       </c>
       <c r="F3">
-        <v>0.8710229797382808</v>
+        <v>0.8691576836444022</v>
       </c>
       <c r="G3">
-        <v>12.55439926742312</v>
+        <v>12.6564527170098</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -484,16 +484,16 @@
         <v>8</v>
       </c>
       <c r="D4">
-        <v>0.183491280106345</v>
+        <v>0.1754740453785255</v>
       </c>
       <c r="E4">
-        <v>1.187235823812027</v>
+        <v>1.189960546324733</v>
       </c>
       <c r="F4">
-        <v>0.1434651227480919</v>
+        <v>0.1407149132085432</v>
       </c>
       <c r="G4">
-        <v>0.8701767834751463</v>
+        <v>0.903804068644379</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -501,16 +501,16 @@
         <v>9</v>
       </c>
       <c r="D5">
-        <v>-0.9126722506232912</v>
+        <v>-0.9093388085975926</v>
       </c>
       <c r="E5">
-        <v>-8.386053460771677</v>
+        <v>-8.468371304509372</v>
       </c>
       <c r="F5">
-        <v>-0.8438706450923897</v>
+        <v>-0.8401519279565977</v>
       </c>
       <c r="G5">
-        <v>-6.155359266988637</v>
+        <v>-6.526932710513361</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -518,10 +518,10 @@
         <v>10</v>
       </c>
       <c r="F6">
-        <v>-0.06967786687169689</v>
+        <v>-0.07707970206332282</v>
       </c>
       <c r="G6">
-        <v>-0.3021662654477426</v>
+        <v>-0.3531206270971102</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -529,10 +529,10 @@
         <v>11</v>
       </c>
       <c r="F7">
-        <v>-0.227704981831301</v>
+        <v>-0.2240718418102165</v>
       </c>
       <c r="G7">
-        <v>-0.7807282574773323</v>
+        <v>-0.8920070977325015</v>
       </c>
     </row>
   </sheetData>
